--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Qrfp-Qrfpr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Qrfp-Qrfpr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,22 +534,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.5575443333333333</v>
+        <v>0.269851</v>
       </c>
       <c r="H2">
-        <v>1.672633</v>
+        <v>0.809553</v>
       </c>
       <c r="I2">
-        <v>0.1908506676047367</v>
+        <v>0.08116802516034023</v>
       </c>
       <c r="J2">
-        <v>0.1908506676047367</v>
+        <v>0.08116802516034022</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,27 +564,27 @@
         <v>0.08967</v>
       </c>
       <c r="O2">
-        <v>0.5172473465620674</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.5172473465620673</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.01666500012333333</v>
+        <v>0.008065846390000001</v>
       </c>
       <c r="R2">
-        <v>0.14998500111</v>
+        <v>0.07259261751</v>
       </c>
       <c r="S2">
-        <v>0.09871700140814918</v>
+        <v>0.08116802516034023</v>
       </c>
       <c r="T2">
-        <v>0.09871700140814915</v>
+        <v>0.08116802516034022</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.5575443333333333</v>
+        <v>1.206463333333333</v>
       </c>
       <c r="H3">
-        <v>1.672633</v>
+        <v>3.61939</v>
       </c>
       <c r="I3">
-        <v>0.1908506676047367</v>
+        <v>0.3628900622752109</v>
       </c>
       <c r="J3">
-        <v>0.1908506676047367</v>
+        <v>0.3628900622752109</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,33 +620,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.02789666666666667</v>
+        <v>0.02989</v>
       </c>
       <c r="N3">
-        <v>0.08369</v>
+        <v>0.08967</v>
       </c>
       <c r="O3">
-        <v>0.4827526534379326</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.4827526534379326</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.01555362841888889</v>
+        <v>0.03606118903333334</v>
       </c>
       <c r="R3">
-        <v>0.13998265577</v>
+        <v>0.3245507013</v>
       </c>
       <c r="S3">
-        <v>0.09213366619658753</v>
+        <v>0.3628900622752109</v>
       </c>
       <c r="T3">
-        <v>0.09213366619658753</v>
+        <v>0.3628900622752109</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.206463333333333</v>
+        <v>0.610521</v>
       </c>
       <c r="H4">
-        <v>3.61939</v>
+        <v>1.831563</v>
       </c>
       <c r="I4">
-        <v>0.4129794149833874</v>
+        <v>0.1836375773627523</v>
       </c>
       <c r="J4">
-        <v>0.4129794149833873</v>
+        <v>0.1836375773627523</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,27 +688,27 @@
         <v>0.08967</v>
       </c>
       <c r="O4">
-        <v>0.5172473465620674</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.5172473465620673</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.03606118903333334</v>
+        <v>0.01824847269</v>
       </c>
       <c r="R4">
-        <v>0.3245507013</v>
+        <v>0.16423625421</v>
       </c>
       <c r="S4">
-        <v>0.213612506584912</v>
+        <v>0.1836375773627523</v>
       </c>
       <c r="T4">
-        <v>0.2136125065849119</v>
+        <v>0.1836375773627523</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,25 +717,25 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.206463333333333</v>
+        <v>0.3033006666666666</v>
       </c>
       <c r="H5">
-        <v>3.61939</v>
+        <v>0.9099019999999999</v>
       </c>
       <c r="I5">
-        <v>0.4129794149833874</v>
+        <v>0.09122929373301547</v>
       </c>
       <c r="J5">
-        <v>0.4129794149833873</v>
+        <v>0.09122929373301548</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,33 +744,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.02789666666666667</v>
+        <v>0.02989</v>
       </c>
       <c r="N5">
-        <v>0.08369</v>
+        <v>0.08967</v>
       </c>
       <c r="O5">
-        <v>0.4827526534379326</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.4827526534379326</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.03365630545555556</v>
+        <v>0.009065656926666665</v>
       </c>
       <c r="R5">
-        <v>0.3029067491</v>
+        <v>0.08159091233999999</v>
       </c>
       <c r="S5">
-        <v>0.1993669083984753</v>
+        <v>0.09122929373301547</v>
       </c>
       <c r="T5">
-        <v>0.1993669083984753</v>
+        <v>0.09122929373301548</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -782,22 +782,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2917816666666667</v>
+        <v>0.9344613333333333</v>
       </c>
       <c r="H6">
-        <v>0.875345</v>
+        <v>2.803384</v>
       </c>
       <c r="I6">
-        <v>0.09987856130691447</v>
+        <v>0.2810750414686811</v>
       </c>
       <c r="J6">
-        <v>0.09987856130691447</v>
+        <v>0.2810750414686811</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -812,332 +812,22 @@
         <v>0.08967</v>
       </c>
       <c r="O6">
-        <v>0.5172473465620674</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.5172473465620673</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.008721354016666667</v>
+        <v>0.02793104925333333</v>
       </c>
       <c r="R6">
-        <v>0.07849218615</v>
+        <v>0.25137944328</v>
       </c>
       <c r="S6">
-        <v>0.05166192081443828</v>
+        <v>0.2810750414686811</v>
       </c>
       <c r="T6">
-        <v>0.05166192081443827</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.2917816666666667</v>
-      </c>
-      <c r="H7">
-        <v>0.875345</v>
-      </c>
-      <c r="I7">
-        <v>0.09987856130691447</v>
-      </c>
-      <c r="J7">
-        <v>0.09987856130691447</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.02789666666666667</v>
-      </c>
-      <c r="N7">
-        <v>0.08369</v>
-      </c>
-      <c r="O7">
-        <v>0.4827526534379326</v>
-      </c>
-      <c r="P7">
-        <v>0.4827526534379326</v>
-      </c>
-      <c r="Q7">
-        <v>0.008139735894444444</v>
-      </c>
-      <c r="R7">
-        <v>0.07325762305</v>
-      </c>
-      <c r="S7">
-        <v>0.04821664049247619</v>
-      </c>
-      <c r="T7">
-        <v>0.04821664049247619</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.3437603333333333</v>
-      </c>
-      <c r="H8">
-        <v>1.031281</v>
-      </c>
-      <c r="I8">
-        <v>0.1176711611800559</v>
-      </c>
-      <c r="J8">
-        <v>0.1176711611800559</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.02989</v>
-      </c>
-      <c r="N8">
-        <v>0.08967</v>
-      </c>
-      <c r="O8">
-        <v>0.5172473465620674</v>
-      </c>
-      <c r="P8">
-        <v>0.5172473465620673</v>
-      </c>
-      <c r="Q8">
-        <v>0.01027499636333333</v>
-      </c>
-      <c r="R8">
-        <v>0.09247496726999999</v>
-      </c>
-      <c r="S8">
-        <v>0.06086509588726127</v>
-      </c>
-      <c r="T8">
-        <v>0.06086509588726126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.3437603333333333</v>
-      </c>
-      <c r="H9">
-        <v>1.031281</v>
-      </c>
-      <c r="I9">
-        <v>0.1176711611800559</v>
-      </c>
-      <c r="J9">
-        <v>0.1176711611800559</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.02789666666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.08369</v>
-      </c>
-      <c r="O9">
-        <v>0.4827526534379326</v>
-      </c>
-      <c r="P9">
-        <v>0.4827526534379326</v>
-      </c>
-      <c r="Q9">
-        <v>0.009589767432222221</v>
-      </c>
-      <c r="R9">
-        <v>0.08630790688999999</v>
-      </c>
-      <c r="S9">
-        <v>0.05680606529279464</v>
-      </c>
-      <c r="T9">
-        <v>0.05680606529279464</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.5218146666666666</v>
-      </c>
-      <c r="H10">
-        <v>1.565444</v>
-      </c>
-      <c r="I10">
-        <v>0.1786201949249055</v>
-      </c>
-      <c r="J10">
-        <v>0.1786201949249055</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.02989</v>
-      </c>
-      <c r="N10">
-        <v>0.08967</v>
-      </c>
-      <c r="O10">
-        <v>0.5172473465620674</v>
-      </c>
-      <c r="P10">
-        <v>0.5172473465620673</v>
-      </c>
-      <c r="Q10">
-        <v>0.01559704038666667</v>
-      </c>
-      <c r="R10">
-        <v>0.14037336348</v>
-      </c>
-      <c r="S10">
-        <v>0.09239082186730663</v>
-      </c>
-      <c r="T10">
-        <v>0.09239082186730661</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>0.5218146666666666</v>
-      </c>
-      <c r="H11">
-        <v>1.565444</v>
-      </c>
-      <c r="I11">
-        <v>0.1786201949249055</v>
-      </c>
-      <c r="J11">
-        <v>0.1786201949249055</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.02789666666666667</v>
-      </c>
-      <c r="N11">
-        <v>0.08369</v>
-      </c>
-      <c r="O11">
-        <v>0.4827526534379326</v>
-      </c>
-      <c r="P11">
-        <v>0.4827526534379326</v>
-      </c>
-      <c r="Q11">
-        <v>0.01455688981777778</v>
-      </c>
-      <c r="R11">
-        <v>0.13101200836</v>
-      </c>
-      <c r="S11">
-        <v>0.08622937305759887</v>
-      </c>
-      <c r="T11">
-        <v>0.08622937305759888</v>
+        <v>0.2810750414686811</v>
       </c>
     </row>
   </sheetData>
